--- a/product_data/processing_metadata/C1/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C1/PROF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE.v0/processing_metadata/C1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{D7290B6D-A588-472E-A3B0-67391D39AAD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{89ECFC07-4DBF-43D0-95DF-B4AEEC214D2B}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{D7290B6D-A588-472E-A3B0-67391D39AAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89ECFC07-4DBF-43D0-95DF-B4AEEC214D2B}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="18380" windowHeight="8830" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA997538-EC9F-42CD-BFDA-0538E4F1CABF}">
   <dimension ref="A1:BA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/product_data/processing_metadata/C1/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C1/PROF_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{D7290B6D-A588-472E-A3B0-67391D39AAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89ECFC07-4DBF-43D0-95DF-B4AEEC214D2B}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{D7290B6D-A588-472E-A3B0-67391D39AAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A72A4D9-CD63-4A59-8E96-C6EB111500B4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="248">
   <si>
     <t>file_type</t>
   </si>
@@ -694,6 +694,90 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>06AQ20130814_prof</t>
+  </si>
+  <si>
+    <t>06AQ20120107_prof</t>
+  </si>
+  <si>
+    <t>06AQ20100407_prof</t>
+  </si>
+  <si>
+    <t>06AQ20100129_prof</t>
+  </si>
+  <si>
+    <t>06AQ20080418_prof</t>
+  </si>
+  <si>
+    <t>06AQ20071128_prof</t>
+  </si>
+  <si>
+    <t>06AQ20040121_prof</t>
+  </si>
+  <si>
+    <t>06AQ20011024_prof</t>
+  </si>
+  <si>
+    <t>06AQ19920929_prof</t>
+  </si>
+  <si>
+    <t>06AQ19881122_prof</t>
+  </si>
+  <si>
+    <t>06AQ19860627_prof</t>
+  </si>
+  <si>
+    <t>06AQ19850103_prof</t>
+  </si>
+  <si>
+    <t>06AQ20181215_prof</t>
+  </si>
+  <si>
+    <t>09AR19940101_prof</t>
+  </si>
+  <si>
+    <t>09AR19941213_prof</t>
+  </si>
+  <si>
+    <t>09AR19950717_prof</t>
+  </si>
+  <si>
+    <t>09AR19960119_prof</t>
+  </si>
+  <si>
+    <t>09AR19980228_prof</t>
+  </si>
+  <si>
+    <t>09AR19990713_prof</t>
+  </si>
+  <si>
+    <t>096U20160107_prof</t>
+  </si>
+  <si>
+    <t>096U20160314_prof</t>
+  </si>
+  <si>
+    <t>096U20160426_prof</t>
+  </si>
+  <si>
+    <t>096U20180110_prof</t>
+  </si>
+  <si>
+    <t>09AR19910103_prof</t>
+  </si>
+  <si>
+    <t>09AR19910925_prof</t>
+  </si>
+  <si>
+    <t>09AR19930105_prof</t>
+  </si>
+  <si>
+    <t>09AR19930311_prof</t>
   </si>
 </sst>
 </file>
@@ -1045,15 +1129,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA997538-EC9F-42CD-BFDA-0538E4F1CABF}">
-  <dimension ref="A1:BA28"/>
+  <dimension ref="A1:BB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1088,133 +1172,136 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1245,53 +1332,56 @@
       <c r="J2" t="s">
         <v>87</v>
       </c>
-      <c r="N2" t="s">
+      <c r="L2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O2" t="s">
         <v>138</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>89</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>90</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>91</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>90</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>91</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>93</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>94</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>95</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>96</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>97</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>98</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1322,53 +1412,56 @@
       <c r="J3" t="s">
         <v>102</v>
       </c>
-      <c r="N3" t="s">
+      <c r="L3" t="s">
+        <v>231</v>
+      </c>
+      <c r="O3" t="s">
         <v>138</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>88</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>89</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>90</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>91</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>90</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>93</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>94</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>95</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>96</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>98</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1399,53 +1492,56 @@
       <c r="J4" t="s">
         <v>105</v>
       </c>
-      <c r="N4" t="s">
+      <c r="L4" t="s">
+        <v>230</v>
+      </c>
+      <c r="O4" t="s">
         <v>138</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>89</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>90</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>91</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>90</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>91</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>92</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>93</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>94</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>95</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>96</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>98</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1476,71 +1572,74 @@
       <c r="J5" t="s">
         <v>105</v>
       </c>
-      <c r="N5" t="s">
+      <c r="L5" t="s">
+        <v>229</v>
+      </c>
+      <c r="O5" t="s">
         <v>138</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>88</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>89</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>90</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>91</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>90</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>91</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>92</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>93</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>94</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>95</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>96</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>97</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>98</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>99</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>107</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>109</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>110</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>111</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1571,56 +1670,59 @@
       <c r="J6" t="s">
         <v>115</v>
       </c>
-      <c r="N6" t="s">
+      <c r="L6" t="s">
+        <v>228</v>
+      </c>
+      <c r="O6" t="s">
         <v>138</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>88</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>89</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>90</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>91</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>90</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>91</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>92</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>93</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>94</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>95</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>96</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>97</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>98</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>99</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1651,59 +1753,62 @@
       <c r="J7" t="s">
         <v>115</v>
       </c>
-      <c r="N7" t="s">
+      <c r="L7" t="s">
+        <v>227</v>
+      </c>
+      <c r="O7" t="s">
         <v>138</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>88</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>89</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>90</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>91</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>90</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>91</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>92</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>93</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>95</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>96</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>98</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>99</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>118</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1734,65 +1839,68 @@
       <c r="J8" t="s">
         <v>115</v>
       </c>
-      <c r="N8" t="s">
+      <c r="L8" t="s">
+        <v>226</v>
+      </c>
+      <c r="O8" t="s">
         <v>138</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>88</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>90</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>91</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>90</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>91</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>92</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>93</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>94</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>95</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>96</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>97</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>98</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>99</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>120</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>108</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>118</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -1823,59 +1931,62 @@
       <c r="J9" t="s">
         <v>87</v>
       </c>
-      <c r="N9" t="s">
+      <c r="L9" t="s">
+        <v>225</v>
+      </c>
+      <c r="O9" t="s">
         <v>138</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>89</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>90</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>91</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>90</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>91</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>92</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>93</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>94</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>95</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>96</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>97</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>98</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>99</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AR9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -1906,62 +2017,65 @@
       <c r="J10" t="s">
         <v>124</v>
       </c>
-      <c r="N10" t="s">
+      <c r="L10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O10" t="s">
         <v>138</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>88</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>89</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>90</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>91</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>90</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>91</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>92</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>93</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>94</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>95</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>96</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>97</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>98</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>99</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>120</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>108</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1992,59 +2106,62 @@
       <c r="J11" t="s">
         <v>87</v>
       </c>
-      <c r="N11" t="s">
+      <c r="L11" t="s">
+        <v>223</v>
+      </c>
+      <c r="O11" t="s">
         <v>138</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>89</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>90</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>91</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>90</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>91</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>92</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>93</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>94</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>126</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>96</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>97</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>98</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>99</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>116</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -2075,59 +2192,62 @@
       <c r="J12" t="s">
         <v>115</v>
       </c>
-      <c r="N12" t="s">
+      <c r="L12" t="s">
+        <v>222</v>
+      </c>
+      <c r="O12" t="s">
         <v>138</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>88</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>89</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>90</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>91</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>90</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>91</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>92</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>93</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>94</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>95</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>96</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>97</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>98</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>99</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>118</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -2158,65 +2278,68 @@
       <c r="J13" t="s">
         <v>87</v>
       </c>
-      <c r="N13" t="s">
+      <c r="L13" t="s">
+        <v>221</v>
+      </c>
+      <c r="O13" t="s">
         <v>138</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>88</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>89</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>90</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>91</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>90</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>91</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>92</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>93</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>94</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>95</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>96</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>97</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>98</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>99</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>120</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AO13" t="s">
         <v>108</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AP13" t="s">
         <v>118</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AR13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -2247,65 +2370,68 @@
       <c r="J14" t="s">
         <v>87</v>
       </c>
-      <c r="N14" t="s">
+      <c r="L14" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" t="s">
         <v>138</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>88</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>89</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>90</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>91</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>90</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>91</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>92</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>93</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>94</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>95</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>96</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>97</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>98</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>99</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>120</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AO14" t="s">
         <v>108</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AP14" t="s">
         <v>118</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AR14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2336,96 +2462,96 @@
       <c r="J15" t="s">
         <v>136</v>
       </c>
-      <c r="M15" t="s">
-        <v>137</v>
+      <c r="L15" t="s">
+        <v>240</v>
       </c>
       <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
         <v>138</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>88</v>
       </c>
-      <c r="P15" t="s">
-        <v>137</v>
-      </c>
       <c r="Q15" t="s">
+        <v>137</v>
+      </c>
+      <c r="R15" t="s">
         <v>139</v>
       </c>
-      <c r="R15" t="s">
-        <v>137</v>
-      </c>
       <c r="S15" t="s">
+        <v>137</v>
+      </c>
+      <c r="T15" t="s">
         <v>140</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>141</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>140</v>
       </c>
-      <c r="V15" t="s">
-        <v>137</v>
-      </c>
       <c r="W15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" t="s">
         <v>142</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>141</v>
       </c>
-      <c r="Y15" t="s">
-        <v>137</v>
-      </c>
       <c r="Z15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA15" t="s">
         <v>143</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>144</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>145</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>146</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>147</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>148</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>94</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>149</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>96</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>150</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>98</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>151</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>152</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>107</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AO15" t="s">
         <v>153</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" t="s">
         <v>154</v>
       </c>
-      <c r="AP15" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ15" t="s">
         <v>137</v>
       </c>
@@ -2433,34 +2559,37 @@
         <v>137</v>
       </c>
       <c r="AS15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT15" t="s">
         <v>155</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
         <v>112</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AV15" t="s">
         <v>156</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AW15" t="s">
         <v>112</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AX15" t="s">
         <v>157</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>158</v>
       </c>
-      <c r="AY15" t="s">
-        <v>137</v>
-      </c>
       <c r="AZ15" t="s">
         <v>137</v>
       </c>
       <c r="BA15" t="s">
         <v>137</v>
       </c>
+      <c r="BB15" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2491,93 +2620,93 @@
       <c r="J16" t="s">
         <v>164</v>
       </c>
-      <c r="N16" t="s">
+      <c r="L16" t="s">
+        <v>241</v>
+      </c>
+      <c r="O16" t="s">
         <v>138</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>88</v>
       </c>
-      <c r="P16" t="s">
-        <v>137</v>
-      </c>
       <c r="Q16" t="s">
+        <v>137</v>
+      </c>
+      <c r="R16" t="s">
         <v>139</v>
       </c>
-      <c r="R16" t="s">
-        <v>137</v>
-      </c>
       <c r="S16" t="s">
+        <v>137</v>
+      </c>
+      <c r="T16" t="s">
         <v>140</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>141</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>140</v>
       </c>
-      <c r="V16" t="s">
-        <v>137</v>
-      </c>
       <c r="W16" t="s">
+        <v>137</v>
+      </c>
+      <c r="X16" t="s">
         <v>142</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>141</v>
       </c>
-      <c r="Y16" t="s">
-        <v>137</v>
-      </c>
       <c r="Z16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA16" t="s">
         <v>143</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>144</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>145</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>146</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>147</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>148</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>94</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>149</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>96</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>150</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>98</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>151</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>152</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>107</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AO16" t="s">
         <v>153</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AP16" t="s">
         <v>154</v>
       </c>
-      <c r="AP16" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ16" t="s">
         <v>137</v>
       </c>
@@ -2585,34 +2714,37 @@
         <v>137</v>
       </c>
       <c r="AS16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT16" t="s">
         <v>155</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AU16" t="s">
         <v>112</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AV16" t="s">
         <v>156</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
         <v>112</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>157</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>158</v>
       </c>
-      <c r="AY16" t="s">
-        <v>137</v>
-      </c>
       <c r="AZ16" t="s">
         <v>137</v>
       </c>
       <c r="BA16" t="s">
         <v>137</v>
       </c>
+      <c r="BB16" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -2643,96 +2775,96 @@
       <c r="J17" t="s">
         <v>161</v>
       </c>
-      <c r="M17" t="s">
-        <v>137</v>
+      <c r="L17" t="s">
+        <v>242</v>
       </c>
       <c r="N17" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" t="s">
         <v>138</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>88</v>
       </c>
-      <c r="P17" t="s">
-        <v>137</v>
-      </c>
       <c r="Q17" t="s">
+        <v>137</v>
+      </c>
+      <c r="R17" t="s">
         <v>139</v>
       </c>
-      <c r="R17" t="s">
-        <v>137</v>
-      </c>
       <c r="S17" t="s">
+        <v>137</v>
+      </c>
+      <c r="T17" t="s">
         <v>140</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>141</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>140</v>
       </c>
-      <c r="V17" t="s">
-        <v>137</v>
-      </c>
       <c r="W17" t="s">
+        <v>137</v>
+      </c>
+      <c r="X17" t="s">
         <v>142</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>141</v>
       </c>
-      <c r="Y17" t="s">
-        <v>137</v>
-      </c>
       <c r="Z17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA17" t="s">
         <v>143</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>144</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>145</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>146</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>147</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>148</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>94</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>149</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>96</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>150</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>98</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>151</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>152</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>107</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AO17" t="s">
         <v>153</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>154</v>
       </c>
-      <c r="AP17" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ17" t="s">
         <v>137</v>
       </c>
@@ -2740,34 +2872,37 @@
         <v>137</v>
       </c>
       <c r="AS17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT17" t="s">
         <v>155</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>112</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AV17" t="s">
         <v>156</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>112</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>157</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>158</v>
       </c>
-      <c r="AY17" t="s">
-        <v>137</v>
-      </c>
       <c r="AZ17" t="s">
         <v>137</v>
       </c>
       <c r="BA17" t="s">
         <v>137</v>
       </c>
+      <c r="BB17" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2798,96 +2933,96 @@
       <c r="J18" t="s">
         <v>167</v>
       </c>
-      <c r="M18" t="s">
-        <v>137</v>
+      <c r="L18" t="s">
+        <v>243</v>
       </c>
       <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
         <v>138</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>88</v>
       </c>
-      <c r="P18" t="s">
-        <v>137</v>
-      </c>
       <c r="Q18" t="s">
+        <v>137</v>
+      </c>
+      <c r="R18" t="s">
         <v>139</v>
       </c>
-      <c r="R18" t="s">
-        <v>137</v>
-      </c>
       <c r="S18" t="s">
+        <v>137</v>
+      </c>
+      <c r="T18" t="s">
         <v>140</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>141</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>140</v>
       </c>
-      <c r="V18" t="s">
-        <v>137</v>
-      </c>
       <c r="W18" t="s">
+        <v>137</v>
+      </c>
+      <c r="X18" t="s">
         <v>142</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>141</v>
       </c>
-      <c r="Y18" t="s">
-        <v>137</v>
-      </c>
       <c r="Z18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA18" t="s">
         <v>143</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>144</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>145</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>146</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>147</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>148</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>94</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>149</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>96</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>150</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>98</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>151</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>152</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>107</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AO18" t="s">
         <v>153</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AP18" t="s">
         <v>154</v>
       </c>
-      <c r="AP18" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ18" t="s">
         <v>137</v>
       </c>
@@ -2895,34 +3030,37 @@
         <v>137</v>
       </c>
       <c r="AS18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT18" t="s">
         <v>155</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AU18" t="s">
         <v>112</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AV18" t="s">
         <v>156</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AW18" t="s">
         <v>112</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>157</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>158</v>
       </c>
-      <c r="AY18" t="s">
-        <v>137</v>
-      </c>
       <c r="AZ18" t="s">
         <v>137</v>
       </c>
       <c r="BA18" t="s">
         <v>137</v>
       </c>
+      <c r="BB18" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -2953,84 +3091,84 @@
       <c r="J19" t="s">
         <v>175</v>
       </c>
-      <c r="M19" t="s">
+      <c r="L19" t="s">
+        <v>244</v>
+      </c>
+      <c r="N19" t="s">
         <v>176</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>88</v>
       </c>
-      <c r="P19" t="s">
-        <v>137</v>
-      </c>
       <c r="Q19" t="s">
+        <v>137</v>
+      </c>
+      <c r="R19" t="s">
         <v>177</v>
       </c>
-      <c r="R19" t="s">
-        <v>137</v>
-      </c>
       <c r="S19" t="s">
+        <v>137</v>
+      </c>
+      <c r="T19" t="s">
         <v>178</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>179</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>180</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>181</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>182</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>183</v>
       </c>
-      <c r="Y19" t="s">
-        <v>137</v>
-      </c>
       <c r="Z19" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="AA19" t="s">
         <v>184</v>
       </c>
       <c r="AB19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC19" t="s">
         <v>185</v>
       </c>
       <c r="AD19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE19" t="s">
         <v>186</v>
       </c>
       <c r="AF19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG19" t="s">
         <v>187</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>188</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>96</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>189</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>98</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>190</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>152</v>
       </c>
-      <c r="AP19" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ19" t="s">
         <v>137</v>
       </c>
@@ -3056,16 +3194,19 @@
         <v>137</v>
       </c>
       <c r="AY19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ19" t="s">
         <v>217</v>
       </c>
-      <c r="AZ19" t="s">
-        <v>137</v>
-      </c>
       <c r="BA19" t="s">
         <v>137</v>
       </c>
+      <c r="BB19" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -3094,88 +3235,91 @@
         <v>174</v>
       </c>
       <c r="L20" t="s">
+        <v>245</v>
+      </c>
+      <c r="M20" t="s">
         <v>193</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>176</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-9</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>88</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>177</v>
       </c>
-      <c r="R20" t="s">
-        <v>137</v>
-      </c>
       <c r="S20" t="s">
+        <v>137</v>
+      </c>
+      <c r="T20" t="s">
         <v>178</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>179</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>180</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>181</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>194</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>183</v>
       </c>
-      <c r="Y20" t="s">
-        <v>137</v>
-      </c>
       <c r="Z20" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="AA20" t="s">
         <v>184</v>
       </c>
       <c r="AB20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC20" t="s">
         <v>185</v>
       </c>
       <c r="AD20" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AE20" t="s">
         <v>195</v>
       </c>
       <c r="AF20" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG20" t="s">
         <v>187</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>188</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>96</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>189</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>98</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20" t="s">
         <v>190</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>152</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="AZ20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3204,70 +3348,73 @@
         <v>174</v>
       </c>
       <c r="L21" t="s">
+        <v>246</v>
+      </c>
+      <c r="M21" t="s">
         <v>193</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>199</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-9</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>88</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>200</v>
       </c>
-      <c r="R21" t="s">
-        <v>137</v>
-      </c>
       <c r="S21" t="s">
+        <v>137</v>
+      </c>
+      <c r="T21" t="s">
         <v>201</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>202</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>203</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>204</v>
       </c>
-      <c r="Y21" t="s">
-        <v>137</v>
-      </c>
       <c r="Z21" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="AA21" t="s">
         <v>205</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AB21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG21" t="s">
         <v>187</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>188</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>96</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>189</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>98</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AL21" t="s">
         <v>190</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>152</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="AZ21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -3296,88 +3443,91 @@
         <v>174</v>
       </c>
       <c r="L22" t="s">
+        <v>247</v>
+      </c>
+      <c r="M22" t="s">
         <v>193</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>176</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-9</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>88</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>177</v>
       </c>
-      <c r="R22" t="s">
-        <v>137</v>
-      </c>
       <c r="S22" t="s">
+        <v>137</v>
+      </c>
+      <c r="T22" t="s">
         <v>178</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>179</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>180</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>181</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>194</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>183</v>
       </c>
-      <c r="Y22" t="s">
-        <v>137</v>
-      </c>
       <c r="Z22" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="AA22" t="s">
         <v>184</v>
       </c>
       <c r="AB22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC22" t="s">
         <v>185</v>
       </c>
       <c r="AD22" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AE22" t="s">
         <v>195</v>
       </c>
       <c r="AF22" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG22" t="s">
         <v>187</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>188</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>96</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>189</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>98</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
         <v>190</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>152</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -3405,86 +3555,89 @@
       <c r="I23" t="s">
         <v>174</v>
       </c>
-      <c r="M23" t="s">
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="N23" t="s">
         <v>176</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-9</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>88</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>177</v>
       </c>
-      <c r="R23" t="s">
-        <v>137</v>
-      </c>
       <c r="S23" t="s">
+        <v>137</v>
+      </c>
+      <c r="T23" t="s">
         <v>178</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>179</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>180</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>181</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>194</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>183</v>
       </c>
-      <c r="Y23" t="s">
-        <v>137</v>
-      </c>
       <c r="Z23" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="AA23" t="s">
         <v>184</v>
       </c>
       <c r="AB23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC23" t="s">
         <v>185</v>
       </c>
       <c r="AD23" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AE23" t="s">
         <v>195</v>
       </c>
       <c r="AF23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG23" t="s">
         <v>187</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>188</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>96</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
         <v>189</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
         <v>98</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AL23" t="s">
         <v>190</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
         <v>152</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -3512,86 +3665,89 @@
       <c r="I24" t="s">
         <v>174</v>
       </c>
-      <c r="M24" t="s">
+      <c r="L24" t="s">
+        <v>235</v>
+      </c>
+      <c r="N24" t="s">
         <v>176</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-9</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>88</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>177</v>
       </c>
-      <c r="R24" t="s">
-        <v>137</v>
-      </c>
       <c r="S24" t="s">
+        <v>137</v>
+      </c>
+      <c r="T24" t="s">
         <v>178</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>179</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>180</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>181</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>194</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>183</v>
       </c>
-      <c r="Y24" t="s">
-        <v>137</v>
-      </c>
       <c r="Z24" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="AA24" t="s">
         <v>184</v>
       </c>
       <c r="AB24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC24" t="s">
         <v>185</v>
       </c>
       <c r="AD24" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AE24" t="s">
         <v>195</v>
       </c>
       <c r="AF24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG24" t="s">
         <v>187</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>188</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>96</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AJ24" t="s">
         <v>189</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
         <v>98</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>190</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>152</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="AZ24" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -3619,86 +3775,89 @@
       <c r="I25" t="s">
         <v>174</v>
       </c>
-      <c r="M25" t="s">
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="N25" t="s">
         <v>176</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-9</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>88</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>177</v>
       </c>
-      <c r="R25" t="s">
-        <v>137</v>
-      </c>
       <c r="S25" t="s">
+        <v>137</v>
+      </c>
+      <c r="T25" t="s">
         <v>178</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>179</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>180</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>181</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>194</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>183</v>
       </c>
-      <c r="Y25" t="s">
-        <v>137</v>
-      </c>
       <c r="Z25" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="AA25" t="s">
         <v>184</v>
       </c>
       <c r="AB25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC25" t="s">
         <v>185</v>
       </c>
       <c r="AD25" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AE25" t="s">
         <v>195</v>
       </c>
       <c r="AF25" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG25" t="s">
         <v>187</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>188</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>96</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AJ25" t="s">
         <v>189</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AK25" t="s">
         <v>98</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AL25" t="s">
         <v>190</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>152</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -3726,86 +3885,89 @@
       <c r="I26" t="s">
         <v>174</v>
       </c>
-      <c r="M26" t="s">
+      <c r="L26" t="s">
+        <v>237</v>
+      </c>
+      <c r="N26" t="s">
         <v>176</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-9</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>88</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>177</v>
       </c>
-      <c r="R26" t="s">
-        <v>137</v>
-      </c>
       <c r="S26" t="s">
+        <v>137</v>
+      </c>
+      <c r="T26" t="s">
         <v>178</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>179</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>180</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>181</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>194</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>183</v>
       </c>
-      <c r="Y26" t="s">
-        <v>137</v>
-      </c>
       <c r="Z26" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="AA26" t="s">
         <v>184</v>
       </c>
       <c r="AB26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC26" t="s">
         <v>185</v>
       </c>
       <c r="AD26" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AE26" t="s">
         <v>195</v>
       </c>
       <c r="AF26" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG26" t="s">
         <v>187</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>188</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>96</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>189</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
         <v>98</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
         <v>190</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>152</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -3833,86 +3995,89 @@
       <c r="I27" t="s">
         <v>174</v>
       </c>
-      <c r="M27" t="s">
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="N27" t="s">
         <v>176</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-9</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>88</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>177</v>
       </c>
-      <c r="R27" t="s">
-        <v>137</v>
-      </c>
       <c r="S27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T27" t="s">
         <v>178</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>179</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>180</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>181</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>194</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>183</v>
       </c>
-      <c r="Y27" t="s">
-        <v>137</v>
-      </c>
       <c r="Z27" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="AA27" t="s">
         <v>184</v>
       </c>
       <c r="AB27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC27" t="s">
         <v>185</v>
       </c>
       <c r="AD27" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AE27" t="s">
         <v>195</v>
       </c>
       <c r="AF27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG27" t="s">
         <v>187</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>188</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>96</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AJ27" t="s">
         <v>189</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
         <v>98</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AL27" t="s">
         <v>190</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>152</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="AZ27" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -3943,87 +4108,87 @@
       <c r="J28" t="s">
         <v>175</v>
       </c>
-      <c r="M28" t="s">
+      <c r="L28" t="s">
+        <v>239</v>
+      </c>
+      <c r="N28" t="s">
         <v>176</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>219</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>88</v>
       </c>
-      <c r="P28" t="s">
-        <v>137</v>
-      </c>
       <c r="Q28" t="s">
+        <v>137</v>
+      </c>
+      <c r="R28" t="s">
         <v>177</v>
       </c>
-      <c r="R28" t="s">
-        <v>137</v>
-      </c>
       <c r="S28" t="s">
+        <v>137</v>
+      </c>
+      <c r="T28" t="s">
         <v>178</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>179</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>180</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>181</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>182</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>183</v>
       </c>
-      <c r="Y28" t="s">
-        <v>137</v>
-      </c>
       <c r="Z28" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="AA28" t="s">
         <v>184</v>
       </c>
       <c r="AB28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC28" t="s">
         <v>185</v>
       </c>
       <c r="AD28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE28" t="s">
         <v>186</v>
       </c>
       <c r="AF28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG28" t="s">
         <v>187</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AH28" t="s">
         <v>188</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>96</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AJ28" t="s">
         <v>189</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AK28" t="s">
         <v>98</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AL28" t="s">
         <v>190</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
         <v>152</v>
       </c>
-      <c r="AP28" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ28" t="s">
         <v>137</v>
       </c>
@@ -4049,12 +4214,15 @@
         <v>137</v>
       </c>
       <c r="AY28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ28" t="s">
         <v>216</v>
       </c>
-      <c r="AZ28" t="s">
-        <v>137</v>
-      </c>
       <c r="BA28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB28" t="s">
         <v>137</v>
       </c>
     </row>

--- a/product_data/processing_metadata/C1/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C1/PROF_meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{D7290B6D-A588-472E-A3B0-67391D39AAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A72A4D9-CD63-4A59-8E96-C6EB111500B4}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{D7290B6D-A588-472E-A3B0-67391D39AAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A502831-0777-492D-A5B1-607F844DC22D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
   </bookViews>
@@ -1132,10 +1132,13 @@
   <dimension ref="A1:BB28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="E20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/product_data/processing_metadata/C1/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C1/PROF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{D7290B6D-A588-472E-A3B0-67391D39AAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A502831-0777-492D-A5B1-607F844DC22D}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{D7290B6D-A588-472E-A3B0-67391D39AAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{584F7EBD-AD8B-4F0F-9B07-0D502DC59B5F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA997538-EC9F-42CD-BFDA-0538E4F1CABF}">
   <dimension ref="A1:BB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="A20:E20"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV7" sqref="AV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1807,7 +1807,7 @@
       <c r="AP7" t="s">
         <v>118</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AV7" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       <c r="AP12" t="s">
         <v>118</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AV12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       <c r="AP13" t="s">
         <v>118</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AV13" t="s">
         <v>116</v>
       </c>
     </row>
